--- a/data/teen_pregnancy_2018_ncCounties.xlsx
+++ b/data/teen_pregnancy_2018_ncCounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petef\Google Drive\Data Work\git\NC-school-achievement\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E819F8-E731-452B-9448-D299C891A34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A27BE4E-C67F-41CD-B225-CBCBEEA18412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3D72921-74C2-416E-85A2-63FC63698B15}"/>
   </bookViews>
@@ -1032,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C3F077-0FFA-4588-AAEA-F261C6F57AA0}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
@@ -2168,6 +2168,10 @@
       <c r="E57">
         <v>39639</v>
       </c>
+      <c r="F57">
+        <f>B57/E57</f>
+        <v>6.8114735487777192E-4</v>
+      </c>
       <c r="H57" t="s">
         <v>159</v>
       </c>
@@ -2500,6 +2504,10 @@
       <c r="E74">
         <v>27109</v>
       </c>
+      <c r="F74">
+        <f t="shared" ref="F74:F101" si="0">B74/E74</f>
+        <v>4.0576930170791988E-4</v>
+      </c>
       <c r="H74" t="s">
         <v>176</v>
       </c>
@@ -2517,6 +2525,10 @@
       <c r="E75">
         <v>17505</v>
       </c>
+      <c r="F75">
+        <f t="shared" si="0"/>
+        <v>6.2839188803199089E-4</v>
+      </c>
       <c r="H75" t="s">
         <v>177</v>
       </c>
@@ -2534,6 +2546,10 @@
       <c r="E76">
         <v>19026</v>
       </c>
+      <c r="F76">
+        <f t="shared" si="0"/>
+        <v>4.7303689687795648E-4</v>
+      </c>
       <c r="H76" t="s">
         <v>178</v>
       </c>
@@ -2554,6 +2570,10 @@
       <c r="E77">
         <v>10710</v>
       </c>
+      <c r="F77">
+        <f t="shared" si="0"/>
+        <v>1.8674136321195143E-4</v>
+      </c>
       <c r="H77" t="s">
         <v>179</v>
       </c>
@@ -2571,6 +2591,10 @@
       <c r="E78">
         <v>22698</v>
       </c>
+      <c r="F78">
+        <f t="shared" si="0"/>
+        <v>7.9302141157811261E-4</v>
+      </c>
       <c r="H78" t="s">
         <v>180</v>
       </c>
@@ -2588,6 +2612,10 @@
       <c r="E79">
         <v>14029</v>
       </c>
+      <c r="F79">
+        <f t="shared" si="0"/>
+        <v>6.415282628840259E-4</v>
+      </c>
       <c r="H79" t="s">
         <v>181</v>
       </c>
@@ -2605,6 +2633,10 @@
       <c r="E80">
         <v>11139</v>
       </c>
+      <c r="F80">
+        <f t="shared" si="0"/>
+        <v>6.2842265912559472E-4</v>
+      </c>
       <c r="H80" t="s">
         <v>182</v>
       </c>
@@ -2625,6 +2657,10 @@
       <c r="E81">
         <v>27072</v>
       </c>
+      <c r="F81">
+        <f t="shared" si="0"/>
+        <v>1.4775413711583924E-4</v>
+      </c>
       <c r="H81" t="s">
         <v>183</v>
       </c>
@@ -2642,6 +2678,10 @@
       <c r="E82">
         <v>36501</v>
       </c>
+      <c r="F82">
+        <f t="shared" si="0"/>
+        <v>3.8355113558532643E-4</v>
+      </c>
       <c r="H82" t="s">
         <v>184</v>
       </c>
@@ -2659,6 +2699,10 @@
       <c r="E83">
         <v>11573</v>
       </c>
+      <c r="F83">
+        <f t="shared" si="0"/>
+        <v>5.1844811198479223E-4</v>
+      </c>
       <c r="H83" t="s">
         <v>185</v>
       </c>
@@ -2679,6 +2723,10 @@
       <c r="E84">
         <v>8484</v>
       </c>
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>9.4295143800094295E-4</v>
+      </c>
       <c r="H84" t="s">
         <v>186</v>
       </c>
@@ -2696,6 +2744,10 @@
       <c r="E85">
         <v>21012</v>
       </c>
+      <c r="F85">
+        <f t="shared" si="0"/>
+        <v>8.5665334094802965E-4</v>
+      </c>
       <c r="H85" t="s">
         <v>187</v>
       </c>
@@ -2713,6 +2765,10 @@
       <c r="E86">
         <v>23659</v>
       </c>
+      <c r="F86">
+        <f t="shared" si="0"/>
+        <v>5.917409865167589E-4</v>
+      </c>
       <c r="H86" t="s">
         <v>188</v>
       </c>
@@ -2730,6 +2786,10 @@
       <c r="E87">
         <v>5230</v>
       </c>
+      <c r="F87">
+        <f t="shared" si="0"/>
+        <v>1.9120458891013384E-4</v>
+      </c>
       <c r="H87" t="s">
         <v>189</v>
       </c>
@@ -2747,6 +2807,10 @@
       <c r="E88">
         <v>9637</v>
       </c>
+      <c r="F88">
+        <f t="shared" si="0"/>
+        <v>6.2260039431358304E-4</v>
+      </c>
       <c r="H88" t="s">
         <v>190</v>
       </c>
@@ -2764,6 +2828,10 @@
       <c r="E89">
         <v>22671</v>
       </c>
+      <c r="F89">
+        <f t="shared" si="0"/>
+        <v>8.3807507388293414E-4</v>
+      </c>
       <c r="H89" t="s">
         <v>191</v>
       </c>
@@ -2781,6 +2849,10 @@
       <c r="E90">
         <v>15000</v>
       </c>
+      <c r="F90">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
       <c r="H90" t="s">
         <v>192</v>
       </c>
@@ -2798,6 +2870,10 @@
       <c r="E91">
         <v>27271</v>
       </c>
+      <c r="F91">
+        <f t="shared" si="0"/>
+        <v>6.6004180264750097E-4</v>
+      </c>
       <c r="H91" t="s">
         <v>193</v>
       </c>
@@ -2815,6 +2891,10 @@
       <c r="E92">
         <v>19676</v>
       </c>
+      <c r="F92">
+        <f t="shared" si="0"/>
+        <v>6.6070339499898351E-4</v>
+      </c>
       <c r="H92" t="s">
         <v>194</v>
       </c>
@@ -2832,6 +2912,10 @@
       <c r="E93">
         <v>12670</v>
       </c>
+      <c r="F93">
+        <f t="shared" si="0"/>
+        <v>7.1033938437253352E-4</v>
+      </c>
       <c r="H93" t="s">
         <v>195</v>
       </c>
@@ -2849,6 +2933,10 @@
       <c r="E94">
         <v>13422</v>
       </c>
+      <c r="F94">
+        <f t="shared" si="0"/>
+        <v>5.9603635821785131E-4</v>
+      </c>
       <c r="H94" t="s">
         <v>196</v>
       </c>
@@ -2866,6 +2954,10 @@
       <c r="E95">
         <v>20611</v>
       </c>
+      <c r="F95">
+        <f t="shared" si="0"/>
+        <v>3.3962447236912327E-4</v>
+      </c>
       <c r="H95" t="s">
         <v>197</v>
       </c>
@@ -2883,6 +2975,10 @@
       <c r="E96">
         <v>14245</v>
       </c>
+      <c r="F96">
+        <f t="shared" si="0"/>
+        <v>1.053001053001053E-3</v>
+      </c>
       <c r="H96" t="s">
         <v>198</v>
       </c>
@@ -2900,6 +2996,10 @@
       <c r="E97">
         <v>34215</v>
       </c>
+      <c r="F97">
+        <f t="shared" si="0"/>
+        <v>4.6763115592576355E-4</v>
+      </c>
       <c r="H97" t="s">
         <v>199</v>
       </c>
@@ -2917,6 +3017,10 @@
       <c r="E98">
         <v>4131</v>
       </c>
+      <c r="F98">
+        <f t="shared" si="0"/>
+        <v>9.6828854998789635E-4</v>
+      </c>
       <c r="H98" t="s">
         <v>200</v>
       </c>
@@ -2934,6 +3038,10 @@
       <c r="E99">
         <v>11859</v>
       </c>
+      <c r="F99">
+        <f t="shared" si="0"/>
+        <v>1.2648621300278269E-3</v>
+      </c>
       <c r="H99" t="s">
         <v>201</v>
       </c>
@@ -2951,6 +3059,10 @@
       <c r="E100">
         <v>55945</v>
       </c>
+      <c r="F100">
+        <f t="shared" si="0"/>
+        <v>3.3961926892483687E-4</v>
+      </c>
       <c r="H100" t="s">
         <v>202</v>
       </c>
@@ -2967,6 +3079,10 @@
       </c>
       <c r="E101">
         <v>17903</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="0"/>
+        <v>7.8199184494218848E-4</v>
       </c>
       <c r="H101" t="s">
         <v>203</v>
